--- a/results/mp/logistic/toy-spam/confidence/210/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/210/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,24 +46,24 @@
     <t>waste</t>
   </si>
   <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>poorly</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
@@ -76,73 +76,82 @@
     <t>ok</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>guess</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
     <t>picture</t>
   </si>
   <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>item</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>item</t>
+    <t>would</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>excellent</t>
-  </si>
-  <si>
-    <t>highly</t>
   </si>
   <si>
     <t>favorite</t>
@@ -527,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9736842105263158</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="L3">
         <v>40</v>
       </c>
-      <c r="K3">
-        <v>0.6307692307692307</v>
-      </c>
-      <c r="L3">
-        <v>41</v>
-      </c>
       <c r="M3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -638,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9662162162162162</v>
+        <v>0.9594594594594594</v>
       </c>
       <c r="C4">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>0.46875</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9436619718309859</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="C5">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>0.4415584415584415</v>
+        <v>0.453125</v>
       </c>
       <c r="L5">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M5">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9428571428571428</v>
+        <v>0.941747572815534</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>0.4086021505376344</v>
+        <v>0.3440860215053764</v>
       </c>
       <c r="L6">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9368932038834952</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C7">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>0.2759336099585062</v>
+        <v>0.2676348547717842</v>
       </c>
       <c r="L7">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M7">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9130434782608695</v>
+        <v>0.9318181818181818</v>
       </c>
       <c r="C8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>0.2309899569583931</v>
+        <v>0.2338593974175036</v>
       </c>
       <c r="L8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8978494623655914</v>
+        <v>0.9154929577464789</v>
       </c>
       <c r="C9">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="D9">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>0.2140672782874618</v>
+        <v>0.1987767584097859</v>
       </c>
       <c r="L9">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M9">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8863636363636364</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="C10">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>0.1427399507793273</v>
+        <v>0.1525840853158326</v>
       </c>
       <c r="L10">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="M10">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="N10">
         <v>0.99</v>
@@ -988,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -996,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8526315789473684</v>
+        <v>0.8736842105263158</v>
       </c>
       <c r="C11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1014,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.1058495821727019</v>
+        <v>0.1114206128133705</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1046,13 +1055,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7903225806451613</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="C12">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1064,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>0.06883116883116883</v>
+        <v>0.07207792207792207</v>
       </c>
       <c r="L12">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M12">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="N12">
         <v>0.99</v>
@@ -1088,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>1434</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1096,13 +1105,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7631578947368421</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1114,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>0.05696757230499562</v>
+        <v>0.05959684487291849</v>
       </c>
       <c r="L13">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1138,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1146,13 +1155,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7421875</v>
+        <v>0.765625</v>
       </c>
       <c r="C14">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D14">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1164,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1172,13 +1181,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.734375</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C15">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1190,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1198,13 +1207,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7222222222222222</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="C16">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D16">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1216,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1224,13 +1233,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7142857142857143</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="C17">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1242,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1250,13 +1259,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6481481481481481</v>
+        <v>0.6875</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1268,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1276,13 +1285,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5901639344262295</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1294,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1302,7 +1311,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5555555555555556</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="C20">
         <v>35</v>
@@ -1320,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1328,13 +1337,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1354,13 +1363,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4691943127962085</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C22">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1372,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>112</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1380,13 +1389,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3814432989690721</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C23">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1398,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1406,13 +1415,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3663366336633663</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="C24">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1424,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>128</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1432,13 +1441,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3623188405797101</v>
+        <v>0.4691943127962085</v>
       </c>
       <c r="C25">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D25">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1450,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>220</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1458,13 +1467,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3518518518518519</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="C26">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D26">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1476,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1484,13 +1493,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2943037974683544</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="C27">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1502,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>223</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1510,13 +1519,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2689075630252101</v>
+        <v>0.3917525773195876</v>
       </c>
       <c r="C28">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D28">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1528,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1536,13 +1545,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.165</v>
+        <v>0.3652173913043478</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1554,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>167</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1562,13 +1571,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1582278481012658</v>
+        <v>0.3425925925925926</v>
       </c>
       <c r="C30">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1580,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>266</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1588,13 +1597,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1376811594202899</v>
+        <v>0.3415841584158416</v>
       </c>
       <c r="C31">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D31">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1606,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>238</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1614,13 +1623,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.09691629955947137</v>
+        <v>0.2879746835443038</v>
       </c>
       <c r="C32">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="D32">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1632,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>410</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1640,13 +1649,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08011869436201781</v>
+        <v>0.1485507246376812</v>
       </c>
       <c r="C33">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D33">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1658,7 +1667,85 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>620</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.1360759493670886</v>
+      </c>
+      <c r="C34">
+        <v>43</v>
+      </c>
+      <c r="D34">
+        <v>43</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.09212481426448738</v>
+      </c>
+      <c r="C35">
+        <v>62</v>
+      </c>
+      <c r="D35">
+        <v>63</v>
+      </c>
+      <c r="E35">
+        <v>0.02</v>
+      </c>
+      <c r="F35">
+        <v>0.98</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.09030837004405286</v>
+      </c>
+      <c r="C36">
+        <v>41</v>
+      </c>
+      <c r="D36">
+        <v>41</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
